--- a/11-CollaborationList/Liverpool.xlsx
+++ b/11-CollaborationList/Liverpool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0536F6-8D5D-4C4B-AC28-0D7E3E49D439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E347F51A-8120-6040-9CA5-6AF16FE3CA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{744F52D6-2606-1749-918E-258FAC47E654}"/>
+    <workbookView xWindow="0" yWindow="12120" windowWidth="57600" windowHeight="16220" xr2:uid="{744F52D6-2606-1749-918E-258FAC47E654}"/>
   </bookViews>
   <sheets>
     <sheet name="Liverpool" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
   <si>
     <t>Title</t>
   </si>
@@ -82,9 +82,6 @@
     <t>T.</t>
   </si>
   <si>
-    <t>green@liverpool.ac.uk</t>
-  </si>
-  <si>
     <t>T. Greenshaw</t>
   </si>
   <si>
@@ -170,13 +167,46 @@
   </si>
   <si>
     <t>N. Kumar</t>
+  </si>
+  <si>
+    <t>Harish</t>
+  </si>
+  <si>
+    <t>Poptani</t>
+  </si>
+  <si>
+    <t>H.</t>
+  </si>
+  <si>
+    <t>harish.poptani@liverpool.ac.uk</t>
+  </si>
+  <si>
+    <t>H.Poptani</t>
+  </si>
+  <si>
+    <t>f.t.mada-parambil@liverpool.ac.uk</t>
+  </si>
+  <si>
+    <t>Parambli</t>
+  </si>
+  <si>
+    <t>F.</t>
+  </si>
+  <si>
+    <t>F.T.Parambil</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green@liverpool.ac.uk; green@hep.ph.liv.ac.uk </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -307,6 +337,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -609,7 +647,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -652,11 +690,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -690,6 +730,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -714,8 +755,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD9F2B47-388E-3347-8F2A-6AAC828AED69}" name="Table1" displayName="Table1" ref="A1:P6" totalsRowShown="0">
-  <autoFilter ref="A1:P6" xr:uid="{AD9F2B47-388E-3347-8F2A-6AAC828AED69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD9F2B47-388E-3347-8F2A-6AAC828AED69}" name="Table1" displayName="Table1" ref="A1:P8" totalsRowShown="0">
+  <autoFilter ref="A1:P8" xr:uid="{AD9F2B47-388E-3347-8F2A-6AAC828AED69}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{53C90DC2-5C45-244D-B2CD-E6962A4714AE}" name="Title"/>
     <tableColumn id="2" xr3:uid="{2AFE3A23-E8DE-B34A-B4A8-7115B222A51F}" name="Name"/>
@@ -1055,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07FC97F-12F8-3941-9BA5-84BBB981624C}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1145,22 +1186,22 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1168,25 +1209,25 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
         <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1197,113 +1238,175 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
         <v>36</v>
       </c>
-      <c r="K4" t="s">
+      <c r="N4" t="s">
         <v>37</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" t="s">
         <v>36</v>
-      </c>
-      <c r="K5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>47</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>48</v>
       </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
         <v>36</v>
       </c>
-      <c r="K6" t="s">
-        <v>37</v>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{15819D67-B51C-F642-9CA1-74959AAAE56D}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{4A9D0AB0-8284-5A49-909D-343A2C5B641C}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/11-CollaborationList/Liverpool.xlsx
+++ b/11-CollaborationList/Liverpool.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E347F51A-8120-6040-9CA5-6AF16FE3CA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57BA331-3972-EC43-AC33-D1531D8B4EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="12120" windowWidth="57600" windowHeight="16220" xr2:uid="{744F52D6-2606-1749-918E-258FAC47E654}"/>
   </bookViews>
@@ -187,19 +187,19 @@
     <t>f.t.mada-parambil@liverpool.ac.uk</t>
   </si>
   <si>
-    <t>Parambli</t>
-  </si>
-  <si>
     <t>F.</t>
   </si>
   <si>
     <t>F.T.Parambil</t>
   </si>
   <si>
-    <t>FT</t>
-  </si>
-  <si>
     <t xml:space="preserve">green@liverpool.ac.uk; green@hep.ph.liv.ac.uk </t>
+  </si>
+  <si>
+    <t>Parambil</t>
+  </si>
+  <si>
+    <t>F.T.</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1099,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1186,7 +1186,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -1375,19 +1375,19 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
         <v>58</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>55</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
